--- a/biology/Botanique/Rosa_cymosa/Rosa_cymosa.xlsx
+++ b/biology/Botanique/Rosa_cymosa/Rosa_cymosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa cymosa est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier grimpant originaire de Chine, où il croît depuis la côte orientale dans le Fujian jusqu'au Sichuan vers l'ouest jusqu'à 1300 mètres d'altitude. On le trouve dans des régions chaudes parmi les broussailles et dans les peuplements de bambous.
 Dans la section des Chinensis, il est classé à côté des Banksiæ
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa cymosa a des tiges longues, jusqu'à cinq mètres, lisses ou tomenteuses, munies d'aiguillons en crochets peu nombreux.
 Le feuillage est persistant. Les jeunes pousses et les jeunes feuilles sont de couleur rouge brillant.
@@ -548,7 +562,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante plutôt tendre n'est pas très rustique et doit être cultivée sous serre dans les climats sujets au gel.
 La floraison, unique, intervient de fin mai à début juin.
@@ -580,9 +596,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rosa microcarpa  Lindl[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rosa microcarpa  Lindl.</t>
         </is>
       </c>
     </row>
